--- a/DateBase/orders/Nha Thu_2026-1-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F14" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>860_大菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>6</v>
+      </c>
+      <c r="C20" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>871_洋牡丹高山雪_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>07710915128201215</v>
+        <v>077109151282012151010710201010590</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-24.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>871_洋牡丹高山雪_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>077109151282012151010710201010590</v>
+        <v>0771091512820121510107102010105910</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="str">
         <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
@@ -613,9 +613,74 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>6</v>
+      </c>
+      <c r="C22" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>7</v>
+      </c>
+      <c r="C24" t="str">
+        <v>361_小天使鹅掌芋_Thaumatophyllum xanadu_Thaumatophyllum xanadu_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>339_龟背叶_Monstera leaf_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>8</v>
+      </c>
+      <c r="C26" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>855_海芋粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L28"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +738,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0771091512820121510107102010105910</v>
+        <v>077109151282012151010710201010591010910101045</v>
       </c>
     </row>
   </sheetData>
